--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9033950F-37D5-4F0E-AAC4-8E769CDC6003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E58AF70-F54E-4C83-B25B-D81068F5A398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{8013D4A5-36A3-4AA8-AE95-AD36A25B9827}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{8F514DFB-EE35-4857-B6D6-B09AA9C6CD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3257725-F48E-4025-84D7-183A7D10FAD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8472DFCE-D4F6-4731-A9FB-E391E9044852}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.1924682028534395</v>
+        <v>1.2302782761067936</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E58AF70-F54E-4C83-B25B-D81068F5A398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610EE0E-B432-438C-A0E3-ABD38E3788E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{8F514DFB-EE35-4857-B6D6-B09AA9C6CD1B}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{2B131ACD-F48F-4604-849B-231AAE2D1959}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8472DFCE-D4F6-4731-A9FB-E391E9044852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E70E445-BDFE-4500-81EF-63748FC980ED}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.2302782761067936</v>
+        <v>1.371522675287318</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610EE0E-B432-438C-A0E3-ABD38E3788E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA16AB-8D5B-4FD5-8362-8E4BD2ED1B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{2B131ACD-F48F-4604-849B-231AAE2D1959}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{213DB0FB-19BA-430C-8D60-CC77D154F608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E70E445-BDFE-4500-81EF-63748FC980ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50555983-99B4-48EC-A3C6-CE914A381A2C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
